--- a/doc/log/log_201608040234_sunxinxin.xlsx
+++ b/doc/log/log_201608040234_sunxinxin.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165">
   <si>
     <t>日期</t>
   </si>
@@ -440,6 +440,75 @@
   </si>
   <si>
     <t>页面加载完成</t>
+  </si>
+  <si>
+    <t>2018.6.19</t>
+  </si>
+  <si>
+    <t>13：00-16：30</t>
+  </si>
+  <si>
+    <t>学习jenkins</t>
+  </si>
+  <si>
+    <t>创建了一个项目</t>
+  </si>
+  <si>
+    <t>2018.6.20</t>
+  </si>
+  <si>
+    <t>学习JIRA</t>
+  </si>
+  <si>
+    <t>还在学习</t>
+  </si>
+  <si>
+    <t>2018.6.21</t>
+  </si>
+  <si>
+    <t>2018.6.22</t>
+  </si>
+  <si>
+    <t>2018.6.23</t>
+  </si>
+  <si>
+    <t>学习vue</t>
+  </si>
+  <si>
+    <t>2018.6.24</t>
+  </si>
+  <si>
+    <t>2018.6.25</t>
+  </si>
+  <si>
+    <t>2018.6.26</t>
+  </si>
+  <si>
+    <t>2018.6.27</t>
+  </si>
+  <si>
+    <t>完成查询页面</t>
+  </si>
+  <si>
+    <t>2018.6.28</t>
+  </si>
+  <si>
+    <t>学习jira的使用方法</t>
+  </si>
+  <si>
+    <t>2018.6.29</t>
+  </si>
+  <si>
+    <t>2018.6.30</t>
+  </si>
+  <si>
+    <t>2018.7.01</t>
+  </si>
+  <si>
+    <t>2018.7.02</t>
+  </si>
+  <si>
+    <t>创建成功</t>
   </si>
 </sst>
 </file>
@@ -447,10 +516,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -463,42 +532,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -521,7 +554,53 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -543,14 +622,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -558,9 +629,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -569,14 +639,6 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -598,8 +660,15 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -614,31 +683,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -650,151 +845,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -805,15 +874,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -832,6 +892,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -843,15 +912,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -888,6 +948,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -913,10 +982,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -925,133 +994,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1384,10 +1453,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E51"/>
+  <dimension ref="A1:E74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="D48" sqref="D48"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="C65" sqref="C65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2201,9 +2270,254 @@
         <v>17</v>
       </c>
     </row>
-    <row r="51" spans="2:2">
-      <c r="B51" s="2"/>
-    </row>
+    <row r="51" ht="30" customHeight="1" spans="1:5">
+      <c r="A51" t="s">
+        <v>142</v>
+      </c>
+      <c r="B51" t="s">
+        <v>143</v>
+      </c>
+      <c r="C51" t="s">
+        <v>144</v>
+      </c>
+      <c r="D51" t="s">
+        <v>145</v>
+      </c>
+      <c r="E51" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="52" ht="30" customHeight="1" spans="1:5">
+      <c r="A52" t="s">
+        <v>146</v>
+      </c>
+      <c r="B52" t="s">
+        <v>143</v>
+      </c>
+      <c r="C52" t="s">
+        <v>147</v>
+      </c>
+      <c r="D52" t="s">
+        <v>148</v>
+      </c>
+      <c r="E52" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="53" ht="30" customHeight="1" spans="1:5">
+      <c r="A53" t="s">
+        <v>149</v>
+      </c>
+      <c r="B53" t="s">
+        <v>143</v>
+      </c>
+      <c r="C53" t="s">
+        <v>147</v>
+      </c>
+      <c r="D53" t="s">
+        <v>148</v>
+      </c>
+      <c r="E53" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="54" ht="30" customHeight="1" spans="1:5">
+      <c r="A54" t="s">
+        <v>150</v>
+      </c>
+      <c r="B54" t="s">
+        <v>143</v>
+      </c>
+      <c r="C54" t="s">
+        <v>147</v>
+      </c>
+      <c r="D54" t="s">
+        <v>148</v>
+      </c>
+      <c r="E54" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="55" ht="30" customHeight="1" spans="1:5">
+      <c r="A55" t="s">
+        <v>151</v>
+      </c>
+      <c r="B55" t="s">
+        <v>143</v>
+      </c>
+      <c r="C55" t="s">
+        <v>152</v>
+      </c>
+      <c r="D55" t="s">
+        <v>148</v>
+      </c>
+      <c r="E55" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="56" ht="30" customHeight="1" spans="1:5">
+      <c r="A56" t="s">
+        <v>153</v>
+      </c>
+      <c r="B56" t="s">
+        <v>143</v>
+      </c>
+      <c r="C56" t="s">
+        <v>152</v>
+      </c>
+      <c r="D56" t="s">
+        <v>148</v>
+      </c>
+      <c r="E56" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="57" ht="30" customHeight="1" spans="1:5">
+      <c r="A57" t="s">
+        <v>154</v>
+      </c>
+      <c r="B57" t="s">
+        <v>143</v>
+      </c>
+      <c r="C57" t="s">
+        <v>152</v>
+      </c>
+      <c r="D57" t="s">
+        <v>148</v>
+      </c>
+      <c r="E57" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="58" ht="30" customHeight="1" spans="1:5">
+      <c r="A58" t="s">
+        <v>155</v>
+      </c>
+      <c r="B58" t="s">
+        <v>143</v>
+      </c>
+      <c r="C58" t="s">
+        <v>152</v>
+      </c>
+      <c r="D58" t="s">
+        <v>148</v>
+      </c>
+      <c r="E58" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="59" ht="30" customHeight="1" spans="1:5">
+      <c r="A59" t="s">
+        <v>156</v>
+      </c>
+      <c r="B59" t="s">
+        <v>143</v>
+      </c>
+      <c r="C59" t="s">
+        <v>152</v>
+      </c>
+      <c r="D59" t="s">
+        <v>157</v>
+      </c>
+      <c r="E59" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="60" ht="30" customHeight="1" spans="1:5">
+      <c r="A60" t="s">
+        <v>158</v>
+      </c>
+      <c r="B60" t="s">
+        <v>143</v>
+      </c>
+      <c r="C60" t="s">
+        <v>159</v>
+      </c>
+      <c r="D60" t="s">
+        <v>148</v>
+      </c>
+      <c r="E60" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="61" ht="30" customHeight="1" spans="1:5">
+      <c r="A61" t="s">
+        <v>160</v>
+      </c>
+      <c r="B61" t="s">
+        <v>143</v>
+      </c>
+      <c r="C61" t="s">
+        <v>159</v>
+      </c>
+      <c r="D61" t="s">
+        <v>148</v>
+      </c>
+      <c r="E61" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="62" ht="30" customHeight="1" spans="1:5">
+      <c r="A62" t="s">
+        <v>161</v>
+      </c>
+      <c r="B62" t="s">
+        <v>143</v>
+      </c>
+      <c r="C62" t="s">
+        <v>159</v>
+      </c>
+      <c r="D62" t="s">
+        <v>148</v>
+      </c>
+      <c r="E62" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="63" ht="30" customHeight="1" spans="1:5">
+      <c r="A63" t="s">
+        <v>162</v>
+      </c>
+      <c r="B63" t="s">
+        <v>143</v>
+      </c>
+      <c r="C63" t="s">
+        <v>159</v>
+      </c>
+      <c r="D63" t="s">
+        <v>148</v>
+      </c>
+      <c r="E63" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="64" ht="30" customHeight="1" spans="1:5">
+      <c r="A64" t="s">
+        <v>163</v>
+      </c>
+      <c r="B64" t="s">
+        <v>143</v>
+      </c>
+      <c r="C64" t="s">
+        <v>159</v>
+      </c>
+      <c r="D64" t="s">
+        <v>164</v>
+      </c>
+      <c r="E64" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="65" ht="30" customHeight="1"/>
+    <row r="66" ht="30" customHeight="1"/>
+    <row r="67" ht="30" customHeight="1"/>
+    <row r="68" ht="30" customHeight="1"/>
+    <row r="69" ht="30" customHeight="1"/>
+    <row r="70" ht="30" customHeight="1"/>
+    <row r="71" ht="30" customHeight="1"/>
+    <row r="72" ht="30" customHeight="1"/>
+    <row r="73" ht="30" customHeight="1"/>
+    <row r="74" ht="20" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
